--- a/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1911700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1708900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1470200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1317200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1106900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>924300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>755200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>660600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>580500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>622700</v>
+      </c>
+      <c r="E17" s="3">
         <v>572500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>495900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>325700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>174800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>154200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>148500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>152200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>172600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1136500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>974300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>991500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>932200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>770000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>606700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>508400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>407900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-501300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-463000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-399000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-334000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-304100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-258300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-215200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-182000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-140700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>807800</v>
+      </c>
+      <c r="E21" s="3">
         <v>687500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>587500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>667500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>637100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>520700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>399800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>273300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E23" s="3">
         <v>673500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>575300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>657400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>628100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>511800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>391500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>326400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>267200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E24" s="3">
         <v>168100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>190000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>261100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>255000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>215100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>162800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>140900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>117700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>588900</v>
+      </c>
+      <c r="E26" s="3">
         <v>505300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>385300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>396300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>373100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>296700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>228700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>185500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E27" s="3">
         <v>504400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>385300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>396300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>373100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>296700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>228700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>185500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>149500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,21 +1343,24 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>501300</v>
+      </c>
+      <c r="E32" s="3">
         <v>463000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>399000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>334000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>304100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>258300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>215200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>182000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>140700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E33" s="3">
         <v>504400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>387200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>396300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>373100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>296700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>228700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>185500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>149500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E35" s="3">
         <v>504400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>387200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>396300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>373100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>296700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>228700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>185500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>149500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>702300</v>
+      </c>
+      <c r="E41" s="3">
         <v>269200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>290100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>499900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>311300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>274200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>326800</v>
+      </c>
+      <c r="E42" s="3">
         <v>312900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>273300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>171700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>184700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>111200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>155300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>57800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,9 +1840,12 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1769,39 +1873,45 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E48" s="3">
         <v>59100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>50700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>9400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>60200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>108100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50591800</v>
+      </c>
+      <c r="E54" s="3">
         <v>47364800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43117700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39047600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33450500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27318600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22376700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17456100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14666100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,9 +2167,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1186400</v>
+      </c>
+      <c r="E59" s="3">
         <v>530700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>403800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>373600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>247600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>152000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>149300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>138100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>78100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,24 +2266,27 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>456100</v>
+      </c>
+      <c r="E61" s="3">
         <v>258200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>257400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>256600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2157,9 +2299,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2187,9 +2332,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45846600</v>
+      </c>
+      <c r="E66" s="3">
         <v>42957700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39086000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35435300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30558700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24822400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20576700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15805700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13258000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3172300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2730900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2290500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1903300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1507000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1134000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>837300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>608500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>423000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4745200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4407100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4031700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3612300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2891800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2496200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1799900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1650300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1408100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E81" s="3">
         <v>504400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>387200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>396300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>373100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>296700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>228700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>185500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>149500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E83" s="3">
         <v>14000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>6100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>778400</v>
+      </c>
+      <c r="E89" s="3">
         <v>651600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>546000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>565000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>538900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>420900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>202500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>380900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>169200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2634400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4289100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4341300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5418400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6172000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4815900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4913100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2949200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,17 +3291,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-62000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2328500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3619400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3591800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5050800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5675500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4550100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4760600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>2773900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3232,43 +3480,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>472600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-203500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>197400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>42500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>155100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>50000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>53800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,94 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1931600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1911700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1708900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1470200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1317200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1106900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>924300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>755200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>660600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>580500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E17" s="3">
         <v>622700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>572500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>495900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>325700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>174800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>154200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>148500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>152200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>172600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1519100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1289000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1136500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>974300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>991500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>932200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>770000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>606700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>508400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>407900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1083,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-501300</v>
+        <v>-786900</v>
       </c>
       <c r="E20" s="3">
-        <v>-463000</v>
+        <v>-467600</v>
       </c>
       <c r="F20" s="3">
+        <v>-435700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-399000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-334000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-304100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-258300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-215200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-182000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-140700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>807800</v>
+        <v>752900</v>
       </c>
       <c r="E21" s="3">
-        <v>687500</v>
+        <v>841600</v>
       </c>
       <c r="F21" s="3">
+        <v>714700</v>
+      </c>
+      <c r="G21" s="3">
         <v>587500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>667500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>637100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>520700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>399800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>273300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1188,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>787600</v>
+        <v>732200</v>
       </c>
       <c r="E23" s="3">
-        <v>673500</v>
+        <v>821400</v>
       </c>
       <c r="F23" s="3">
+        <v>700700</v>
+      </c>
+      <c r="G23" s="3">
         <v>575300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>657400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>628100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>511800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>391500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>326400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>267200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>198700</v>
+        <v>203800</v>
       </c>
       <c r="E24" s="3">
-        <v>168100</v>
+        <v>234900</v>
       </c>
       <c r="F24" s="3">
+        <v>194300</v>
+      </c>
+      <c r="G24" s="3">
         <v>190000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>261100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>255000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>215100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>162800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>140900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>117700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>588900</v>
+        <v>528400</v>
       </c>
       <c r="E26" s="3">
-        <v>505300</v>
+        <v>586500</v>
       </c>
       <c r="F26" s="3">
+        <v>506400</v>
+      </c>
+      <c r="G26" s="3">
         <v>385300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>396300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>373100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>296700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>228700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>149500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>587000</v>
+        <v>526600</v>
       </c>
       <c r="E27" s="3">
-        <v>504400</v>
+        <v>584600</v>
       </c>
       <c r="F27" s="3">
+        <v>505500</v>
+      </c>
+      <c r="G27" s="3">
         <v>385300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>396300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>373100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>296700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>228700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>149500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,24 +1404,27 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1379,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>501300</v>
+        <v>786900</v>
       </c>
       <c r="E32" s="3">
-        <v>463000</v>
+        <v>467600</v>
       </c>
       <c r="F32" s="3">
+        <v>435700</v>
+      </c>
+      <c r="G32" s="3">
         <v>399000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>334000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>304100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>258300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>215200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>182000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>140700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>587000</v>
+        <v>526600</v>
       </c>
       <c r="E33" s="3">
-        <v>504400</v>
+        <v>584600</v>
       </c>
       <c r="F33" s="3">
+        <v>505500</v>
+      </c>
+      <c r="G33" s="3">
         <v>387200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>396300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>373100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>296700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>228700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>149500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>587000</v>
+        <v>526600</v>
       </c>
       <c r="E35" s="3">
-        <v>504400</v>
+        <v>584600</v>
       </c>
       <c r="F35" s="3">
+        <v>505500</v>
+      </c>
+      <c r="G35" s="3">
         <v>387200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>396300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>373100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>296700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>228700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>149500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1732,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12209000</v>
+      </c>
+      <c r="E41" s="3">
         <v>702300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>269200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>290100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>499900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>311300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>274200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E42" s="3">
         <v>326800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>312900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>273300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>171700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>184700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>111200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>155300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>57800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1837,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1909,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,9 +1945,12 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,42 +1981,48 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>317700</v>
+      </c>
+      <c r="E48" s="3">
         <v>350400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>50700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1942,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>9400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>60200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>108100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73888300</v>
+      </c>
+      <c r="E54" s="3">
         <v>50591800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47364800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43117700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39047600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33450500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27318600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22376700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17456100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14666100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,9 +2301,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2337,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>928300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1186400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>530700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>403800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>373600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>247600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>152000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>149300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>78100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,27 +2409,30 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>828600</v>
+      </c>
+      <c r="E61" s="3">
         <v>456100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>258200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>257400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>256600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2302,9 +2445,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2335,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68061400</v>
+      </c>
+      <c r="E66" s="3">
         <v>45846600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42957700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39086000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35435300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30558700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24822400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20576700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15805700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13258000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3548300</v>
+      </c>
+      <c r="E72" s="3">
         <v>3172300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2730900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2290500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1903300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1507000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1134000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>837300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>608500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>423000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5826900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4745200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4407100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4031700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3612300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2891800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2496200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1799900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1650300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1408100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>587000</v>
+        <v>526600</v>
       </c>
       <c r="E81" s="3">
-        <v>504400</v>
+        <v>584600</v>
       </c>
       <c r="F81" s="3">
+        <v>505500</v>
+      </c>
+      <c r="G81" s="3">
         <v>387200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>396300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>373100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>296700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>228700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>149500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E83" s="3">
         <v>20100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>6100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>904400</v>
+      </c>
+      <c r="E89" s="3">
         <v>778400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>651600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>546000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>565000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>538900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>420900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>202500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>380900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>169200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11878600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2634400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4289100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4341300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5418400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6172000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4815900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4913100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2949200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,20 +3525,21 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-122800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-62000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3324,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22532700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2328500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3619400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3591800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5050800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5675500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4550100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4760600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>2773900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3483,46 +3732,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11558500</v>
+      </c>
+      <c r="E102" s="3">
         <v>472600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-203500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>197400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>155100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>53800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -665,7 +665,7 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1143,8 +1143,8 @@
       <c r="I21" s="3">
         <v>637100</v>
       </c>
-      <c r="J21" s="3">
-        <v>520700</v>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>399800</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29547600</v>
+      </c>
+      <c r="E41" s="3">
         <v>12209000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>702300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>269200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>290100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>499900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>311300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>274200</v>
       </c>
       <c r="K41" s="3">
         <v>119500</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>239800</v>
+      </c>
+      <c r="E42" s="3">
         <v>311000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>326800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>312900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>273300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>171700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>184700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>111200</v>
       </c>
       <c r="K42" s="3">
         <v>155300</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>318200</v>
+      </c>
+      <c r="E48" s="3">
         <v>317700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>350400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>50700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>41000</v>
       </c>
       <c r="K48" s="3">
         <v>36300</v>
@@ -2140,20 +2140,20 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>9400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>60200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>21800</v>
       </c>
       <c r="K52" s="3">
         <v>108100</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118445000</v>
+      </c>
+      <c r="E54" s="3">
         <v>73888300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50591800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47364800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43117700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39047600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33450500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>27318600</v>
       </c>
       <c r="K54" s="3">
         <v>22376700</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="E59" s="3">
         <v>928300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1186400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>530700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>403800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>373600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>247600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>152000</v>
       </c>
       <c r="K59" s="3">
         <v>149300</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>570200</v>
+      </c>
+      <c r="E61" s="3">
         <v>828600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>456100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>258200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>257400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>256600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110605000</v>
+      </c>
+      <c r="E66" s="3">
         <v>68061400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45846600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42957700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39086000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>35435300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30558700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>24822400</v>
       </c>
       <c r="K66" s="3">
         <v>20576700</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4298500</v>
+      </c>
+      <c r="E72" s="3">
         <v>3548300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3172300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2730900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2290500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1903300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1507000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1134000</v>
       </c>
       <c r="K72" s="3">
         <v>837300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7840600</v>
+      </c>
+      <c r="E76" s="3">
         <v>5826900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4745200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4407100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4031700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3612300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2891800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2496200</v>
       </c>
       <c r="K76" s="3">
         <v>1799900</v>
@@ -3121,8 +3121,8 @@
       <c r="I83" s="3">
         <v>9000</v>
       </c>
-      <c r="J83" s="3">
-        <v>8900</v>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>8200</v>
@@ -3497,8 +3497,8 @@
       <c r="I94" s="3">
         <v>-6172000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-4815900</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>-4913100</v>
@@ -3693,8 +3693,8 @@
       <c r="I100" s="3">
         <v>5675500</v>
       </c>
-      <c r="J100" s="3">
-        <v>4550100</v>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>4760600</v>
@@ -3729,8 +3729,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,93 +666,100 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2190400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1931600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1911700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1708900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1470200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1317200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1106900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>924300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>755200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>660600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>580500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,9 +793,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +927,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,9 +966,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1005,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>359900</v>
+      </c>
+      <c r="E17" s="3">
         <v>412600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>622700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>572500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>495900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>325700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>174800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>154200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>148500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>172600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1830500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1519100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1289000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1136500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>974300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>991500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>932200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>770000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>606700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>508400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>407900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,80 +1117,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-582700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-786900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-467600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-435700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-399000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-334000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-304100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-258300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-215200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-182000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-140700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1268800</v>
+      </c>
+      <c r="E21" s="3">
         <v>752900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>841600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>714700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>587500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>667500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>637100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>399800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>273300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,81 +1231,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1247800</v>
+      </c>
+      <c r="E23" s="3">
         <v>732200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>821400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>575300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>657400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>628100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>511800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>391500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>326400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>267200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E24" s="3">
         <v>203800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>234900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>194300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>190000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>261100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>255000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>215100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>162800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>140900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>117700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>918400</v>
+      </c>
+      <c r="E26" s="3">
         <v>528400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>586500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>506400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>385300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>396300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>373100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>296700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>228700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>149500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>880600</v>
+      </c>
+      <c r="E27" s="3">
         <v>526600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>584600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>505500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>385300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>396300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>373100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>296700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>228700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>149500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1419,15 +1480,15 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>2000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1443,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>582700</v>
+      </c>
+      <c r="E32" s="3">
         <v>786900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>467600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>435700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>399000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>334000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>304100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>258300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>215200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>182000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>140700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>880600</v>
+      </c>
+      <c r="E33" s="3">
         <v>526600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>584600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>505500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>387200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>396300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>373100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>296700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>228700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>149500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>880600</v>
+      </c>
+      <c r="E35" s="3">
         <v>526600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>584600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>505500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>387200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>396300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>373100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>296700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>228700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>149500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,8 +1819,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1760,17 +1847,20 @@
         <v>311300</v>
       </c>
       <c r="K41" s="3">
+        <v>311300</v>
+      </c>
+      <c r="L41" s="3">
         <v>119500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1796,17 +1886,20 @@
         <v>184700</v>
       </c>
       <c r="K42" s="3">
+        <v>184700</v>
+      </c>
+      <c r="L42" s="3">
         <v>155300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>57800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,9 +1933,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1972,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1912,9 +2011,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,9 +2050,12 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,9 +2089,12 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2012,17 +2120,20 @@
         <v>44200</v>
       </c>
       <c r="K48" s="3">
+        <v>44200</v>
+      </c>
+      <c r="L48" s="3">
         <v>36300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2056,9 +2167,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2245,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2156,17 +2276,20 @@
         <v>36900</v>
       </c>
       <c r="K52" s="3">
+        <v>36900</v>
+      </c>
+      <c r="L52" s="3">
         <v>108100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,9 +2323,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2228,17 +2354,20 @@
         <v>33450500</v>
       </c>
       <c r="K54" s="3">
+        <v>33450500</v>
+      </c>
+      <c r="L54" s="3">
         <v>22376700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17456100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14666100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2399,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2304,9 +2435,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,9 +2474,12 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2368,17 +2505,20 @@
         <v>247600</v>
       </c>
       <c r="K59" s="3">
+        <v>247600</v>
+      </c>
+      <c r="L59" s="3">
         <v>149300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>78100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,9 +2552,12 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,9 +2591,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2484,9 +2630,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,9 +2747,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2620,17 +2778,20 @@
         <v>30558700</v>
       </c>
       <c r="K66" s="3">
+        <v>30558700</v>
+      </c>
+      <c r="L66" s="3">
         <v>20576700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15805700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13258000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,9 +2959,12 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2816,17 +2990,20 @@
         <v>1507000</v>
       </c>
       <c r="K72" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="L72" s="3">
         <v>837300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>608500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>423000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,9 +3115,12 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2960,17 +3146,20 @@
         <v>2891800</v>
       </c>
       <c r="K76" s="3">
+        <v>2891800</v>
+      </c>
+      <c r="L76" s="3">
         <v>1799900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1650300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1408100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>880600</v>
+      </c>
+      <c r="E81" s="3">
         <v>526600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>584600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>505500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>387200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>396300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>373100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>296700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>228700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>149500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E83" s="3">
         <v>20700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>8200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>6100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>879600</v>
+      </c>
+      <c r="E89" s="3">
         <v>904400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>778400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>651600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>546000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>565000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>538900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>420900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>202500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>380900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>169200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27121200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11878600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2634400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4289100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4341300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5418400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6172000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4913100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2949200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,23 +3759,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-168200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-120100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-122800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-62000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3561,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3912,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>43513900</v>
+      </c>
+      <c r="E100" s="3">
         <v>22532700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2328500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3619400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3591800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5050800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5675500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>4760600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>2773900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3729,55 +3978,61 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17272300</v>
+      </c>
+      <c r="E102" s="3">
         <v>11558500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>472600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-203500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>197400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>42500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>53800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -666,8 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1163,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1268800</v>
+        <v>1268500</v>
       </c>
       <c r="E21" s="3">
-        <v>752900</v>
+        <v>752300</v>
       </c>
       <c r="F21" s="3">
-        <v>841600</v>
+        <v>835400</v>
       </c>
       <c r="G21" s="3">
-        <v>714700</v>
+        <v>712900</v>
       </c>
       <c r="H21" s="3">
-        <v>587500</v>
+        <v>585400</v>
       </c>
       <c r="I21" s="3">
-        <v>667500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>637100</v>
+        <v>666500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -3303,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21000</v>
+        <v>20700</v>
       </c>
       <c r="E83" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="F83" s="3">
-        <v>20100</v>
+        <v>14000</v>
       </c>
       <c r="G83" s="3">
-        <v>14000</v>
+        <v>12200</v>
       </c>
       <c r="H83" s="3">
-        <v>12200</v>
+        <v>10100</v>
       </c>
       <c r="I83" s="3">
-        <v>10100</v>
-      </c>
-      <c r="J83" s="3">
         <v>9000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3537,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>879600</v>
+        <v>904400</v>
       </c>
       <c r="E89" s="3">
-        <v>904400</v>
+        <v>778400</v>
       </c>
       <c r="F89" s="3">
-        <v>778400</v>
+        <v>651600</v>
       </c>
       <c r="G89" s="3">
-        <v>651600</v>
+        <v>546000</v>
       </c>
       <c r="H89" s="3">
-        <v>546000</v>
+        <v>565000</v>
       </c>
       <c r="I89" s="3">
-        <v>565000</v>
+        <v>538900</v>
       </c>
       <c r="J89" s="3">
-        <v>538900</v>
+        <v>420900</v>
       </c>
       <c r="K89" s="3">
         <v>420900</v>
@@ -3593,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32200</v>
+        <v>-35000</v>
       </c>
       <c r="E91" s="3">
-        <v>-35000</v>
+        <v>-32900</v>
       </c>
       <c r="F91" s="3">
-        <v>-32900</v>
+        <v>-11500</v>
       </c>
       <c r="G91" s="3">
-        <v>-11500</v>
+        <v>-23100</v>
       </c>
       <c r="H91" s="3">
-        <v>-23100</v>
+        <v>-16600</v>
       </c>
       <c r="I91" s="3">
-        <v>-16600</v>
+        <v>-12200</v>
       </c>
       <c r="J91" s="3">
-        <v>-12200</v>
+        <v>-13600</v>
       </c>
       <c r="K91" s="3">
         <v>-13600</v>
@@ -3710,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27121200</v>
+        <v>-11878600</v>
       </c>
       <c r="E94" s="3">
-        <v>-11878600</v>
+        <v>-2634400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2634400</v>
+        <v>-4289100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4289100</v>
+        <v>-4341300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4341300</v>
+        <v>-5418400</v>
       </c>
       <c r="I94" s="3">
-        <v>-5418400</v>
-      </c>
-      <c r="J94" s="3">
         <v>-6172000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3766,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-168200</v>
+        <v>-120100</v>
       </c>
       <c r="E96" s="3">
-        <v>-120100</v>
+        <v>-122800</v>
       </c>
       <c r="F96" s="3">
-        <v>-122800</v>
+        <v>-62000</v>
       </c>
       <c r="G96" s="3">
-        <v>-62000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3922,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>43513900</v>
+        <v>22532700</v>
       </c>
       <c r="E100" s="3">
-        <v>22532700</v>
+        <v>2328500</v>
       </c>
       <c r="F100" s="3">
-        <v>2328500</v>
+        <v>3619400</v>
       </c>
       <c r="G100" s="3">
-        <v>3619400</v>
+        <v>3591800</v>
       </c>
       <c r="H100" s="3">
-        <v>3591800</v>
+        <v>5050800</v>
       </c>
       <c r="I100" s="3">
-        <v>5050800</v>
-      </c>
-      <c r="J100" s="3">
         <v>5675500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3978,8 +3977,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4000,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17272300</v>
+        <v>11558500</v>
       </c>
       <c r="E102" s="3">
-        <v>11558500</v>
+        <v>472600</v>
       </c>
       <c r="F102" s="3">
-        <v>472600</v>
+        <v>-18200</v>
       </c>
       <c r="G102" s="3">
-        <v>-18200</v>
+        <v>-203500</v>
       </c>
       <c r="H102" s="3">
-        <v>-203500</v>
+        <v>197400</v>
       </c>
       <c r="I102" s="3">
-        <v>197400</v>
+        <v>42500</v>
       </c>
       <c r="J102" s="3">
-        <v>42500</v>
+        <v>155100</v>
       </c>
       <c r="K102" s="3">
         <v>155100</v>

--- a/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3550300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2190400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1931600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1911700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1708900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1470200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1317200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1106900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>924300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>755200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>660600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>580500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,9 +802,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,9 +844,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +946,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,9 +988,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1030,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1093800</v>
+      </c>
+      <c r="E17" s="3">
         <v>359900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>412600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>622700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>572500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>495900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>325700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>174800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>154200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>148500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>152200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>172600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2456600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1830500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1519100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1289000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1136500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>974300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>991500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>932200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>770000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>606700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>508400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>407900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,86 +1150,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-701200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-582700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-786900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-467600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-435700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-399000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-334000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-304100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-258300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-215200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-182000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-140700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1268500</v>
+        <v>1778700</v>
       </c>
       <c r="E21" s="3">
-        <v>752300</v>
+        <v>1268800</v>
       </c>
       <c r="F21" s="3">
-        <v>835400</v>
+        <v>752900</v>
       </c>
       <c r="G21" s="3">
-        <v>712900</v>
+        <v>841600</v>
       </c>
       <c r="H21" s="3">
-        <v>585400</v>
+        <v>714700</v>
       </c>
       <c r="I21" s="3">
-        <v>666500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>587500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>667500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>399800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>273300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,87 +1273,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1755400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1247800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>732200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>821400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>575300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>657400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>628100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>511800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>391500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>326400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>267200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>418400</v>
+      </c>
+      <c r="E24" s="3">
         <v>329300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>203800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>234900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>194300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>190000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>261100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>255000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>215100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>162800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>140900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>117700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E26" s="3">
         <v>918400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>528400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>586500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>506400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>385300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>396300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>373100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>296700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>228700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>185500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>149500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1299600</v>
+      </c>
+      <c r="E27" s="3">
         <v>880600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>526600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>584600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>505500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>385300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>396300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>373100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>296700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>228700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>185500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>149500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,15 +1543,15 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>2000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1506,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>701200</v>
+      </c>
+      <c r="E32" s="3">
         <v>582700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>786900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>467600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>435700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>399000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>334000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>304100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>258300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>215200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>182000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>140700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1299600</v>
+      </c>
+      <c r="E33" s="3">
         <v>880600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>526600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>584600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>505500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>387200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>396300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>373100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>296700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>228700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>185500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>149500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1299600</v>
+      </c>
+      <c r="E35" s="3">
         <v>880600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>526600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>584600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>505500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>387200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>396300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>373100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>296700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>228700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>185500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>149500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,86 +1905,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5874500</v>
+      </c>
+      <c r="E41" s="3">
         <v>29547600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12209000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>702300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>269200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>290100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>499900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>311300</v>
       </c>
       <c r="K41" s="3">
         <v>311300</v>
       </c>
       <c r="L41" s="3">
+        <v>311300</v>
+      </c>
+      <c r="M41" s="3">
         <v>119500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>640500</v>
+      </c>
+      <c r="E42" s="3">
         <v>239800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>311000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>326800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>312900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>273300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>171700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>184700</v>
       </c>
       <c r="K42" s="3">
         <v>184700</v>
       </c>
       <c r="L42" s="3">
+        <v>184700</v>
+      </c>
+      <c r="M42" s="3">
         <v>155300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>57800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54200</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1935,9 +2028,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,9 +2070,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2013,9 +2112,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2052,9 +2154,12 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2091,48 +2196,54 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>366500</v>
+      </c>
+      <c r="E48" s="3">
         <v>318200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>317700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>350400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>44200</v>
       </c>
       <c r="K48" s="3">
         <v>44200</v>
       </c>
       <c r="L48" s="3">
+        <v>44200</v>
+      </c>
+      <c r="M48" s="3">
         <v>36300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2169,9 +2280,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2364,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2262,33 +2382,36 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>9400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>60200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>36900</v>
       </c>
       <c r="K52" s="3">
         <v>36900</v>
       </c>
       <c r="L52" s="3">
+        <v>36900</v>
+      </c>
+      <c r="M52" s="3">
         <v>108100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110364000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118445000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73888300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>50591800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47364800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43117700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39047600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>33450500</v>
       </c>
       <c r="K54" s="3">
         <v>33450500</v>
       </c>
       <c r="L54" s="3">
+        <v>33450500</v>
+      </c>
+      <c r="M54" s="3">
         <v>22376700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17456100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14666100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,8 +2529,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2437,9 +2568,12 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2476,48 +2610,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1755500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1112500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>928300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1186400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>530700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>403800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>373600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>247600</v>
       </c>
       <c r="K59" s="3">
         <v>247600</v>
       </c>
       <c r="L59" s="3">
+        <v>247600</v>
+      </c>
+      <c r="M59" s="3">
         <v>149300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>78100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2554,33 +2694,36 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>571600</v>
+      </c>
+      <c r="E61" s="3">
         <v>570200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>828600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>456100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>258200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>257400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>256600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2593,9 +2736,12 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2632,9 +2778,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102351000</v>
+      </c>
+      <c r="E66" s="3">
         <v>110605000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68061400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45846600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42957700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39086000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>35435300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>30558700</v>
       </c>
       <c r="K66" s="3">
         <v>30558700</v>
       </c>
       <c r="L66" s="3">
+        <v>30558700</v>
+      </c>
+      <c r="M66" s="3">
         <v>20576700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15805700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13258000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5457900</v>
+      </c>
+      <c r="E72" s="3">
         <v>4298500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3548300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3172300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2730900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2290500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1903300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1507000</v>
       </c>
       <c r="K72" s="3">
         <v>1507000</v>
       </c>
       <c r="L72" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="M72" s="3">
         <v>837300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>608500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>423000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8013100</v>
+      </c>
+      <c r="E76" s="3">
         <v>7840600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5826900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4745200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4407100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4031700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3612300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2891800</v>
       </c>
       <c r="K76" s="3">
         <v>2891800</v>
       </c>
       <c r="L76" s="3">
+        <v>2891800</v>
+      </c>
+      <c r="M76" s="3">
         <v>1799900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1650300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1408100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1299600</v>
+      </c>
+      <c r="E81" s="3">
         <v>880600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>526600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>584600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>505500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>387200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>396300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>373100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>296700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>228700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>185500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>149500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F83" s="3">
         <v>20700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>14000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10100</v>
       </c>
-      <c r="I83" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>8200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>6100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>945700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>879600</v>
+      </c>
+      <c r="F89" s="3">
         <v>904400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>778400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>651600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>546000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>565000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>538900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>420900</v>
       </c>
       <c r="K89" s="3">
         <v>420900</v>
       </c>
       <c r="L89" s="3">
+        <v>420900</v>
+      </c>
+      <c r="M89" s="3">
         <v>202500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>380900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>169200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-35000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-32900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-23100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-16600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-13600</v>
       </c>
       <c r="K91" s="3">
         <v>-13600</v>
       </c>
       <c r="L91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-12400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16227000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-27121200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11878600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2634400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4289100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4341300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5418400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-6172000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4913100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2949200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,26 +3992,27 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-177700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-168200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-120100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-122800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-62000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3797,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,48 +4157,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8384700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43513900</v>
+      </c>
+      <c r="F100" s="3">
         <v>22532700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2328500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3619400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3591800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5050800</v>
       </c>
-      <c r="I100" s="3">
-        <v>5675500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>4760600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>2773900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3977,61 +4226,67 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23666000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>17272300</v>
+      </c>
+      <c r="F102" s="3">
         <v>11558500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>472600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-203500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>197400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>42500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>155100</v>
       </c>
       <c r="K102" s="3">
         <v>155100</v>
       </c>
       <c r="L102" s="3">
+        <v>155100</v>
+      </c>
+      <c r="M102" s="3">
         <v>50000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>53800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
